--- a/output/imp_grid_results.xlsx
+++ b/output/imp_grid_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="impress" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="impress" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -469,7 +469,7 @@
         <v>-100.3176617633046</v>
       </c>
       <c r="C3" t="n">
-        <v>1.276676866855636</v>
+        <v>1.276676866855637</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         <v>-93.84718563574154</v>
       </c>
       <c r="C6" t="n">
-        <v>1.327544976222541</v>
+        <v>1.327544976222542</v>
       </c>
     </row>
     <row r="7">
@@ -590,7 +590,7 @@
         <v>-76.59258262890683</v>
       </c>
       <c r="C14" t="n">
-        <v>1.410083823517523</v>
+        <v>1.410083823517522</v>
       </c>
     </row>
     <row r="15">
@@ -931,7 +931,7 @@
         <v>-55.60224848803857</v>
       </c>
       <c r="C45" t="n">
-        <v>1.386359870345449</v>
+        <v>1.38635987034545</v>
       </c>
     </row>
     <row r="46">
@@ -1019,7 +1019,7 @@
         <v>-84.21889799182009</v>
       </c>
       <c r="C53" t="n">
-        <v>1.31136911998643</v>
+        <v>1.311369119986431</v>
       </c>
     </row>
     <row r="54">
@@ -1085,7 +1085,7 @@
         <v>-71.27794573669405</v>
       </c>
       <c r="C59" t="n">
-        <v>1.434143336015939</v>
+        <v>1.43414333601594</v>
       </c>
     </row>
     <row r="60">
@@ -1118,7 +1118,7 @@
         <v>-64.80746960913103</v>
       </c>
       <c r="C62" t="n">
-        <v>1.478371026260825</v>
+        <v>1.478371026260824</v>
       </c>
     </row>
     <row r="63">
@@ -1140,7 +1140,7 @@
         <v>-60.49381885742235</v>
       </c>
       <c r="C64" t="n">
-        <v>1.488228135119597</v>
+        <v>1.488228135119596</v>
       </c>
     </row>
     <row r="65">
@@ -1701,7 +1701,7 @@
         <v>-42.23822971008354</v>
       </c>
       <c r="C115" t="n">
-        <v>1.582956041392304</v>
+        <v>1.582956041392303</v>
       </c>
     </row>
     <row r="116">
@@ -1921,7 +1921,7 @@
         <v>-44.972974703613</v>
       </c>
       <c r="C135" t="n">
-        <v>1.569601787536403</v>
+        <v>1.569601787536404</v>
       </c>
     </row>
     <row r="136">
@@ -1954,7 +1954,7 @@
         <v>-38.50249857604999</v>
       </c>
       <c r="C138" t="n">
-        <v>1.642914791489033</v>
+        <v>1.642914791489032</v>
       </c>
     </row>
     <row r="139">
@@ -1976,7 +1976,7 @@
         <v>-34.18884782434131</v>
       </c>
       <c r="C140" t="n">
-        <v>1.642914791489033</v>
+        <v>1.642914791489032</v>
       </c>
     </row>
     <row r="141">
@@ -2042,7 +2042,7 @@
         <v>-21.24789556921527</v>
       </c>
       <c r="C146" t="n">
-        <v>1.473281813300914</v>
+        <v>1.473281813300913</v>
       </c>
     </row>
     <row r="147">
@@ -2240,7 +2240,7 @@
         <v>-28.29629131445341</v>
       </c>
       <c r="C164" t="n">
-        <v>1.721234881537623</v>
+        <v>1.721234881537624</v>
       </c>
     </row>
     <row r="165">
@@ -2460,7 +2460,7 @@
         <v>-31.03103630798287</v>
       </c>
       <c r="C184" t="n">
-        <v>1.604574418808227</v>
+        <v>1.604574418808226</v>
       </c>
     </row>
     <row r="185">
@@ -2823,7 +2823,7 @@
         <v>-5.727051415405921</v>
       </c>
       <c r="C217" t="n">
-        <v>1.748497869765996</v>
+        <v>1.748497869765997</v>
       </c>
     </row>
     <row r="218">
@@ -3010,7 +3010,7 @@
         <v>-14.9322725364984</v>
       </c>
       <c r="C234" t="n">
-        <v>1.655643206544128</v>
+        <v>1.65564320654413</v>
       </c>
     </row>
     <row r="235">
@@ -3043,7 +3043,7 @@
         <v>-8.461796408935385</v>
       </c>
       <c r="C237" t="n">
-        <v>1.83802167403424</v>
+        <v>1.838021674034241</v>
       </c>
     </row>
     <row r="238">
@@ -3076,7 +3076,7 @@
         <v>-1.991320281372364</v>
       </c>
       <c r="C240" t="n">
-        <v>1.872175634146881</v>
+        <v>1.872175634146882</v>
       </c>
     </row>
     <row r="241">
@@ -3384,7 +3384,7 @@
         <v>12.5285377319329</v>
       </c>
       <c r="C268" t="n">
-        <v>1.733260193126548</v>
+        <v>1.733260193126549</v>
       </c>
     </row>
     <row r="269">
@@ -3395,7 +3395,7 @@
         <v>14.68536310778724</v>
       </c>
       <c r="C269" t="n">
-        <v>1.67216657350487</v>
+        <v>1.672166573504869</v>
       </c>
     </row>
     <row r="270">
@@ -3626,7 +3626,7 @@
         <v>14.10744349011211</v>
       </c>
       <c r="C290" t="n">
-        <v>1.913657109816412</v>
+        <v>1.913657109816411</v>
       </c>
     </row>
     <row r="291">
@@ -3703,7 +3703,7 @@
         <v>29.20522112109249</v>
       </c>
       <c r="C297" t="n">
-        <v>1.530391236033421</v>
+        <v>1.53039123603342</v>
       </c>
     </row>
     <row r="298">
@@ -3725,7 +3725,7 @@
         <v>33.51887187280117</v>
       </c>
       <c r="C299" t="n">
-        <v>1.451202536338002</v>
+        <v>1.451202536338003</v>
       </c>
     </row>
     <row r="300">
@@ -3835,7 +3835,7 @@
         <v>9.215873120728304</v>
       </c>
       <c r="C309" t="n">
-        <v>1.68550551238222</v>
+        <v>1.685505512382219</v>
       </c>
     </row>
     <row r="310">
@@ -3879,7 +3879,7 @@
         <v>17.84317462414566</v>
       </c>
       <c r="C313" t="n">
-        <v>1.918699071541464</v>
+        <v>1.918699071541465</v>
       </c>
     </row>
     <row r="314">
@@ -3945,7 +3945,7 @@
         <v>30.7841268792717</v>
       </c>
       <c r="C319" t="n">
-        <v>1.68550551238222</v>
+        <v>1.685505512382219</v>
       </c>
     </row>
     <row r="320">
@@ -3989,7 +3989,7 @@
         <v>39.41142838268905</v>
       </c>
       <c r="C323" t="n">
-        <v>1.490812903884998</v>
+        <v>1.490812903884997</v>
       </c>
     </row>
     <row r="324">
@@ -4110,7 +4110,7 @@
         <v>17.26525500647055</v>
       </c>
       <c r="C334" t="n">
-        <v>1.682162381620617</v>
+        <v>1.682162381620616</v>
       </c>
     </row>
     <row r="335">
@@ -4154,7 +4154,7 @@
         <v>25.89255650988791</v>
       </c>
       <c r="C338" t="n">
-        <v>1.913657109816412</v>
+        <v>1.913657109816411</v>
       </c>
     </row>
     <row r="339">
@@ -4176,7 +4176,7 @@
         <v>30.20620726159659</v>
       </c>
       <c r="C340" t="n">
-        <v>1.913657109816412</v>
+        <v>1.913657109816411</v>
       </c>
     </row>
     <row r="341">
@@ -4385,7 +4385,7 @@
         <v>25.31463689221278</v>
       </c>
       <c r="C359" t="n">
-        <v>1.67216657350487</v>
+        <v>1.672166573504871</v>
       </c>
     </row>
     <row r="360">
@@ -4407,7 +4407,7 @@
         <v>29.62828764392146</v>
       </c>
       <c r="C361" t="n">
-        <v>1.802102291982516</v>
+        <v>1.802102291982515</v>
       </c>
     </row>
     <row r="362">
@@ -4462,7 +4462,7 @@
         <v>40.41241452319316</v>
       </c>
       <c r="C366" t="n">
-        <v>1.862559298323211</v>
+        <v>1.86255929832321</v>
       </c>
     </row>
     <row r="367">
@@ -4550,7 +4550,7 @@
         <v>57.66701753002788</v>
       </c>
       <c r="C374" t="n">
-        <v>1.44667983176446</v>
+        <v>1.446679831764461</v>
       </c>
     </row>
     <row r="375">
@@ -4627,7 +4627,7 @@
         <v>26.89354265039201</v>
       </c>
       <c r="C381" t="n">
-        <v>1.514147234483952</v>
+        <v>1.514147234483951</v>
       </c>
     </row>
     <row r="382">
@@ -4693,7 +4693,7 @@
         <v>39.83449490551804</v>
       </c>
       <c r="C387" t="n">
-        <v>1.83802167403424</v>
+        <v>1.838021674034241</v>
       </c>
     </row>
     <row r="388">
@@ -4704,7 +4704,7 @@
         <v>41.99132028137238</v>
       </c>
       <c r="C388" t="n">
-        <v>1.872175634146883</v>
+        <v>1.872175634146882</v>
       </c>
     </row>
     <row r="389">
@@ -4726,7 +4726,7 @@
         <v>46.30497103308106</v>
       </c>
       <c r="C390" t="n">
-        <v>1.872175634146883</v>
+        <v>1.872175634146882</v>
       </c>
     </row>
     <row r="391">
@@ -4836,7 +4836,7 @@
         <v>67.87322479162447</v>
       </c>
       <c r="C400" t="n">
-        <v>1.406075865290082</v>
+        <v>1.406075865290081</v>
       </c>
     </row>
     <row r="401">
@@ -4968,7 +4968,7 @@
         <v>47.88387679126028</v>
       </c>
       <c r="C412" t="n">
-        <v>1.802554070335721</v>
+        <v>1.802554070335722</v>
       </c>
     </row>
     <row r="413">
@@ -5067,7 +5067,7 @@
         <v>67.29530517394934</v>
       </c>
       <c r="C421" t="n">
-        <v>1.540629127802449</v>
+        <v>1.540629127802448</v>
       </c>
     </row>
     <row r="422">
@@ -5210,7 +5210,7 @@
         <v>49.4627825494395</v>
       </c>
       <c r="C434" t="n">
-        <v>1.604574418808228</v>
+        <v>1.604574418808226</v>
       </c>
     </row>
     <row r="435">
@@ -5320,7 +5320,7 @@
         <v>71.0310363079829</v>
       </c>
       <c r="C444" t="n">
-        <v>1.604574418808227</v>
+        <v>1.604574418808228</v>
       </c>
     </row>
     <row r="445">
@@ -5375,7 +5375,7 @@
         <v>81.8151631872546</v>
       </c>
       <c r="C449" t="n">
-        <v>1.416814731185515</v>
+        <v>1.416814731185514</v>
       </c>
     </row>
     <row r="450">
@@ -5540,7 +5540,7 @@
         <v>68.29629131445341</v>
       </c>
       <c r="C464" t="n">
-        <v>1.721234881537624</v>
+        <v>1.721234881537623</v>
       </c>
     </row>
     <row r="465">
@@ -5562,7 +5562,7 @@
         <v>72.60994206616209</v>
       </c>
       <c r="C466" t="n">
-        <v>1.691908183404182</v>
+        <v>1.691908183404183</v>
       </c>
     </row>
     <row r="467">
@@ -5793,7 +5793,7 @@
         <v>72.03202244848698</v>
       </c>
       <c r="C487" t="n">
-        <v>1.626431295104661</v>
+        <v>1.626431295104662</v>
       </c>
     </row>
     <row r="488">
@@ -5815,7 +5815,7 @@
         <v>76.34567320019566</v>
       </c>
       <c r="C489" t="n">
-        <v>1.648535839906284</v>
+        <v>1.648535839906283</v>
       </c>
     </row>
     <row r="490">
@@ -5881,7 +5881,7 @@
         <v>89.2866254553217</v>
       </c>
       <c r="C495" t="n">
-        <v>1.504703541140644</v>
+        <v>1.504703541140643</v>
       </c>
     </row>
     <row r="496">
@@ -6068,7 +6068,7 @@
         <v>80.08140433422923</v>
       </c>
       <c r="C512" t="n">
-        <v>1.57066352744515</v>
+        <v>1.570663527445149</v>
       </c>
     </row>
     <row r="513">
@@ -6079,7 +6079,7 @@
         <v>82.23822971008357</v>
       </c>
       <c r="C513" t="n">
-        <v>1.582956041392302</v>
+        <v>1.582956041392304</v>
       </c>
     </row>
     <row r="514">
@@ -6200,7 +6200,7 @@
         <v>105.9633088444813</v>
       </c>
       <c r="C524" t="n">
-        <v>1.368948907103626</v>
+        <v>1.368948907103627</v>
       </c>
     </row>
     <row r="525">
@@ -6486,7 +6486,7 @@
         <v>116.1695161060779</v>
       </c>
       <c r="C550" t="n">
-        <v>1.328233886978615</v>
+        <v>1.328233886978614</v>
       </c>
     </row>
     <row r="551">
@@ -6552,7 +6552,7 @@
         <v>83.23921585058766</v>
       </c>
       <c r="C556" t="n">
-        <v>1.373781095888769</v>
+        <v>1.373781095888768</v>
       </c>
     </row>
     <row r="557">
@@ -6585,7 +6585,7 @@
         <v>89.70969197815067</v>
       </c>
       <c r="C559" t="n">
-        <v>1.434143336015939</v>
+        <v>1.43414333601594</v>
       </c>
     </row>
     <row r="560">
@@ -6794,7 +6794,7 @@
         <v>84.81812160876689</v>
       </c>
       <c r="C578" t="n">
-        <v>1.294116510026177</v>
+        <v>1.294116510026178</v>
       </c>
     </row>
     <row r="579">
@@ -6948,7 +6948,7 @@
         <v>115.0136768707276</v>
       </c>
       <c r="C592" t="n">
-        <v>1.429815482068895</v>
+        <v>1.429815482068894</v>
       </c>
     </row>
     <row r="593">
@@ -7025,7 +7025,7 @@
         <v>130.111454501708</v>
       </c>
       <c r="C599" t="n">
-        <v>1.312916228379182</v>
+        <v>1.312916228379183</v>
       </c>
     </row>
     <row r="600">
@@ -7069,7 +7069,7 @@
         <v>92.86750349450909</v>
       </c>
       <c r="C603" t="n">
-        <v>1.276676866855636</v>
+        <v>1.276676866855637</v>
       </c>
     </row>
     <row r="604">
@@ -7326,6 +7326,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>